--- a/data/respirometry/middle/final_rates/400_rates.xlsx
+++ b/data/respirometry/middle/final_rates/400_rates.xlsx
@@ -578,24 +578,24 @@
         </is>
       </c>
       <c r="T2">
-        <v>0.15444</v>
+        <v>0.1426048780487805</v>
       </c>
       <c r="V2">
-        <v>0.0025</v>
+        <v>0.0002220611491829204</v>
       </c>
       <c r="Z2">
-        <v>-0.1630399908280546</v>
+        <v>-0.1505458301548111</v>
       </c>
       <c r="AB2">
-        <v>-0.006521599633122186</v>
+        <v>-677.947631581428</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD2">
-        <v>-0.006521599633122186</v>
+        <v>-677.947631581428</v>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
@@ -665,24 +665,24 @@
         </is>
       </c>
       <c r="T3">
-        <v>0.15444</v>
+        <v>0.1423414634146342</v>
       </c>
       <c r="V3">
-        <v>0.0025</v>
+        <v>0.0002565454225970831</v>
       </c>
       <c r="Z3">
-        <v>-0.1608817846862765</v>
+        <v>-0.1482786109104032</v>
       </c>
       <c r="AB3">
-        <v>-0.006435271387451058</v>
+        <v>-577.9819004733592</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD3">
-        <v>-0.006435271387451058</v>
+        <v>-577.9819004733592</v>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
@@ -752,24 +752,24 @@
         </is>
       </c>
       <c r="T4">
-        <v>0.15444</v>
+        <v>0.1477268292682927</v>
       </c>
       <c r="V4">
-        <v>0.0025</v>
+        <v>0.0002491214197856265</v>
       </c>
       <c r="Z4">
-        <v>-0.1985877101812328</v>
+        <v>-0.1899555345553235</v>
       </c>
       <c r="AB4">
-        <v>-0.007943508407249311</v>
+        <v>-762.5018142509931</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD4">
-        <v>-0.007943508407249311</v>
+        <v>-762.5018142509931</v>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
@@ -839,24 +839,24 @@
         </is>
       </c>
       <c r="T5">
-        <v>0.15444</v>
+        <v>0.1470341463414634</v>
       </c>
       <c r="V5">
-        <v>0.0025</v>
+        <v>0.0002082674398172554</v>
       </c>
       <c r="Z5">
-        <v>-0.1893583170981038</v>
+        <v>-0.1802780271119906</v>
       </c>
       <c r="AB5">
-        <v>-0.007574332683924152</v>
+        <v>-865.6083124187626</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD5">
-        <v>-0.007574332683924152</v>
+        <v>-865.6083124187626</v>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
@@ -926,24 +926,24 @@
         </is>
       </c>
       <c r="T6">
-        <v>0.15444</v>
+        <v>0.1477560975609756</v>
       </c>
       <c r="V6">
-        <v>0.0025</v>
+        <v>0.0001607142857142857</v>
       </c>
       <c r="Z6">
-        <v>-0.2138823433582359</v>
+        <v>-0.2046258766628437</v>
       </c>
       <c r="AB6">
-        <v>-0.008555293734329434</v>
+        <v>-1273.22767701325</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD6">
-        <v>-0.008555293734329434</v>
+        <v>-1273.22767701325</v>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
@@ -1013,24 +1013,24 @@
         </is>
       </c>
       <c r="T7">
-        <v>0.15444</v>
+        <v>0.1455317073170732</v>
       </c>
       <c r="V7">
-        <v>0.0025</v>
+        <v>0.0002247627833421192</v>
       </c>
       <c r="Z7">
-        <v>-0.123287653682303</v>
+        <v>-0.1161762673627402</v>
       </c>
       <c r="AB7">
-        <v>-0.004931506147292118</v>
+        <v>-516.8839148334638</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD7">
-        <v>-0.004931506147292118</v>
+        <v>-516.8839148334638</v>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
@@ -1100,24 +1100,18 @@
         </is>
       </c>
       <c r="T8">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V8">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="Z8">
         <v>0</v>
       </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
-        </is>
-      </c>
-      <c r="AD8">
-        <v>0</v>
+          <t>umolO2/min/m2</t>
+        </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
@@ -1187,24 +1181,24 @@
         </is>
       </c>
       <c r="T9">
-        <v>0.15444</v>
+        <v>0.1426048780487805</v>
       </c>
       <c r="V9">
-        <v>0.0025</v>
+        <v>0.0002220611491829204</v>
       </c>
       <c r="Z9">
-        <v>0.1182363094557665</v>
+        <v>0.109175566503998</v>
       </c>
       <c r="AB9">
-        <v>0.00472945237823066</v>
+        <v>491.6464086838794</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD9">
-        <v>0.00472945237823066</v>
+        <v>491.6464086838794</v>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
@@ -1274,24 +1268,24 @@
         </is>
       </c>
       <c r="T10">
-        <v>0.15444</v>
+        <v>0.1423414634146342</v>
       </c>
       <c r="V10">
-        <v>0.0025</v>
+        <v>0.0002565454225970831</v>
       </c>
       <c r="Z10">
-        <v>0.0892327355358878</v>
+        <v>0.08224241233274605</v>
       </c>
       <c r="AB10">
-        <v>0.003569309421435512</v>
+        <v>320.5764168394916</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD10">
-        <v>0.003569309421435512</v>
+        <v>320.5764168394916</v>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
@@ -1361,24 +1355,24 @@
         </is>
       </c>
       <c r="T11">
-        <v>0.15444</v>
+        <v>0.1477268292682927</v>
       </c>
       <c r="V11">
-        <v>0.0025</v>
+        <v>0.0002491214197856265</v>
       </c>
       <c r="Z11">
-        <v>0.2210899641643277</v>
+        <v>0.2114796645236764</v>
       </c>
       <c r="AB11">
-        <v>0.008843598566573107</v>
+        <v>848.901972000876</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD11">
-        <v>0.008843598566573107</v>
+        <v>848.901972000876</v>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
@@ -1448,24 +1442,24 @@
         </is>
       </c>
       <c r="T12">
-        <v>0.15444</v>
+        <v>0.1470341463414634</v>
       </c>
       <c r="V12">
-        <v>0.0025</v>
+        <v>0.0002082674398172554</v>
       </c>
       <c r="Z12">
-        <v>0.2107594487862945</v>
+        <v>0.2006529113940053</v>
       </c>
       <c r="AB12">
-        <v>0.008430377951451778</v>
+        <v>963.4386996357597</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD12">
-        <v>0.008430377951451778</v>
+        <v>963.4386996357597</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
@@ -1535,24 +1529,24 @@
         </is>
       </c>
       <c r="T13">
-        <v>0.15444</v>
+        <v>0.1477560975609756</v>
       </c>
       <c r="V13">
-        <v>0.0025</v>
+        <v>0.0001607142857142857</v>
       </c>
       <c r="Z13">
-        <v>0.2127517326047702</v>
+        <v>0.203544196833832</v>
       </c>
       <c r="AB13">
-        <v>0.008510069304190807</v>
+        <v>1266.497224743843</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD13">
-        <v>0.008510069304190807</v>
+        <v>1266.497224743843</v>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
@@ -1622,24 +1616,24 @@
         </is>
       </c>
       <c r="T14">
-        <v>0.15444</v>
+        <v>0.1455317073170732</v>
       </c>
       <c r="V14">
-        <v>0.0025</v>
+        <v>0.0002247627833421192</v>
       </c>
       <c r="Z14">
-        <v>0.03842518433970241</v>
+        <v>0.03620877156779433</v>
       </c>
       <c r="AB14">
-        <v>0.001537007373588097</v>
+        <v>161.0977183561556</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD14">
-        <v>0.001537007373588097</v>
+        <v>161.0977183561556</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
@@ -1709,24 +1703,28 @@
         </is>
       </c>
       <c r="T15">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V15">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>0.0008888623715875169</v>
-      </c>
-      <c r="AB15">
-        <v>3.555449486350067E-05</v>
+        <v>0.0008886321560030602</v>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
-        </is>
-      </c>
-      <c r="AD15">
-        <v>3.555449486350067E-05</v>
+          <t>umolO2/min/m2</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
